--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_183.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_183.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1785714285714285</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'F', 'E'], ['D', 'E', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'F', 'E'], ['D', 'E', 'D']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.053628, 12.742517), (36.51975, 39.201655)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.577687, 13.301405), (148.441541, 156.533695)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_9</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.13544474393531</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2163461538461539</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['F', 'C/3', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.87, 14.66)]</t>
+          <t>[['E', 'B', 'C#', 'F#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:16.184070', '0:00:24.470647')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:51.111972', '0:01:01.688662')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
-        </is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2517857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>[['A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(53.54, 62.38)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.84, 26.34)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.421247', '0:00:04.824512')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2083333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[(0.465952, 5.272756)]</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(60.76, 64.36)]</t>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2589285714285714</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(58.4, 60.68)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:48', '0:00:52.200000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09375</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2435897435897436</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['A', 'A/3', 'E/5', 'A/3']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.92, 11.96)]</t>
+          <t>[['D:maj', 'D:maj', 'A:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.000294, 29.309954)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:12.404000', '0:00:18.573000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:19.727000', '0:00:41.282000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05368916797488226</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.425</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.84, 12.46)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.625147', '0:01:04.604285')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(27.771, 41.282)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(41.655, 46.22)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1040372670807453</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb:7/b7', 'Ab'], ['Bb', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['C:maj', 'F:7/D#', 'A#:maj/D']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.604557, 14.675034), (23.428956, 30.731632)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(19.5, 30.32), (69.84, 74.4)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:48.460000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1928571428571428</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(261.828, 278.542)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(17.965212, 31.142537)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(138.02, 142.34)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:46.900000', '0:00:59.100000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min', 'A#:maj'], ['D#:maj', 'G#:maj', 'D#:maj'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(40.8, 43.9), (83.34, 87.64), (10.56, 17.34)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.96, 17.82), (118.4, 121.72), (0.36, 5.06)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1594405594405594</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(15.56, 21.08)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(23.629455, 29.120975)]</t>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(105.0, 108.54)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(138.8, 145.8)]</t>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1578947368421053</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(55.151295, 60.155195)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(51.85331, 57.05458)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj'], ['E:min', 'B:maj', 'E:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(69.36, 73.2), (8.54, 14.08)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(52.74, 60.86), (80.22, 87.22)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
